--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -71,12 +71,6 @@
   </x:si>
   <x:si>
     <x:t>0.7127252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9166667</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
@@ -108,6 +102,9 @@
   </x:si>
   <x:si>
     <x:t>4ds ds eds df dszcs 4ds asds asds dszcs df 4ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9166667</x:t>
   </x:si>
   <x:si>
     <x:t>ден343.00 ден23.00 ден4,543.00 ден32.00 ден23.00 ден343.00 ден132.00 ден132.00 ден23.00 ден32.00 ден343.00</x:t>
@@ -166,7 +163,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -547,12 +550,6 @@
       <x:c r="L2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -626,16 +623,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -660,54 +651,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -732,54 +723,54 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G2" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -163,7 +163,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -163,7 +163,25 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -8,6 +8,8 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Items" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -73,6 +75,49 @@
   <x:si>
     <x:t>Key,Value
 "Zip Postal Code","1000"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4ds ds eds df dszcs 4ds asds asds dszcs df 4ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9166667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден343.00 ден23.00 ден4,543.00 ден32.00 ден23.00 ден343.00 ден132.00 ден132.00 ден23.00 ден32.00 ден343.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 1 1 1 1 1 1 1 1 1 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key,Value
+"Value",""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11111110000.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -118,37 +163,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -645,4 +660,148 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -8,6 +8,8 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Items" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -73,6 +75,49 @@
   <x:si>
     <x:t>Key,Value
 "Zip Postal Code","1000"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4ds ds eds df dszcs 4ds asds asds dszcs df 4ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9166667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден343.00 ден23.00 ден4,543.00 ден32.00 ден23.00 ден343.00 ден132.00 ден132.00 ден23.00 ден32.00 ден343.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 1 1 1 1 1 1 1 1 1 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key,Value
+"Value",""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11111110000.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -118,7 +163,25 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -597,4 +660,148 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -8,6 +8,8 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Items" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -73,6 +75,49 @@
   <x:si>
     <x:t>Key,Value
 "Zip Postal Code","1000"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4ds ds eds df dszcs 4ds asds asds dszcs df 4ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9166667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден343.00 ден23.00 ден4,543.00 ден32.00 ден23.00 ден343.00 ден132.00 ден132.00 ден23.00 ден32.00 ден343.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 1 1 1 1 1 1 1 1 1 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key,Value
+"Value",""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11111110000.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -118,7 +163,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -603,4 +660,148 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -8,6 +8,8 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Items" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -73,6 +75,49 @@
   <x:si>
     <x:t>Key,Value
 "Zip Postal Code","1000"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rate - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Qty - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LineTotal - Confidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4ds ds eds df dszcs 4ds asds asds dszcs df 4ds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9166667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ден343.00 ден23.00 ден4,543.00 ден32.00 ден23.00 ден343.00 ден132.00 ден132.00 ден23.00 ден32.00 ден343.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 1 1 1 1 1 1 1 1 1 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key,Value
+"Value",""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11111110000.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -118,7 +163,43 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -579,4 +660,148 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -8,8 +8,6 @@
   <x:sheets>
     <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
     <x:sheet name="Simple Fields - Formatted" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Items" sheetId="7" r:id="rId7"/>
-    <x:sheet name="Items - Formatted" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -75,49 +73,6 @@
   <x:si>
     <x:t>Key,Value
 "Zip Postal Code","1000"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rate - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Qty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Qty - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LineTotal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LineTotal - Confidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4ds ds eds df dszcs 4ds asds asds dszcs df 4ds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.9166667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ден343.00 ден23.00 ден4,543.00 ден32.00 ден23.00 ден343.00 ден132.00 ден132.00 ден23.00 ден32.00 ден343.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 1 1 1 1 1 1 1 1 1 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key,Value
-"Value",""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11111110000.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -163,43 +118,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -660,148 +579,4 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
 </file>
--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -118,7 +118,25 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -118,7 +118,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="10">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -118,7 +118,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -118,7 +118,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -118,7 +118,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="16">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -118,7 +118,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="16">
+  <x:cellStyleXfs count="18">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Data/Exports/Фактура3.pdf_1-4.xlsx
+++ b/Data/Exports/Фактура3.pdf_1-4.xlsx
@@ -118,7 +118,25 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="18">
+  <x:cellStyleXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
